--- a/IPPU/A1_Outputs/A-O_AR_Projections.xlsx
+++ b/IPPU/A1_Outputs/A-O_AR_Projections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_08\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_14\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98959C46-742F-4A86-9C17-C052E35988AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4924FFB-F5FB-4A5B-80BF-A16680EF3B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2016,7 +2016,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2264,79 +2264,79 @@
         <v>0.63109999999999999</v>
       </c>
       <c r="I4" s="6">
-        <v>0.59009999999999996</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="J4" s="6">
-        <v>0.55430000000000001</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="K4" s="6">
-        <v>0.55210000000000004</v>
+        <v>0.5444</v>
       </c>
       <c r="L4" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.54010000000000002</v>
       </c>
       <c r="M4" s="6">
-        <v>0.60399999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="N4" s="6">
-        <v>0.67459999999999998</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="O4" s="6">
-        <v>0.72560000000000002</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="P4" s="6">
-        <v>0.77600000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="Q4" s="6">
-        <v>0.78510000000000002</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="R4" s="6">
-        <v>0.79869999999999997</v>
+        <v>0.81730000000000003</v>
       </c>
       <c r="S4" s="6">
-        <v>0.78680000000000005</v>
+        <v>0.79969999999999997</v>
       </c>
       <c r="T4" s="6">
-        <v>0.79379999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="U4" s="6">
-        <v>0.79510000000000003</v>
+        <v>0.81769999999999998</v>
       </c>
       <c r="V4" s="6">
-        <v>0.79630000000000001</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="W4" s="6">
-        <v>0.7974</v>
+        <v>0.8226</v>
       </c>
       <c r="X4" s="6">
-        <v>0.79969999999999997</v>
+        <v>0.81879999999999997</v>
       </c>
       <c r="Y4" s="6">
-        <v>0.80069999999999997</v>
+        <v>0.81489999999999996</v>
       </c>
       <c r="Z4" s="6">
-        <v>0.80049999999999999</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="AA4" s="6">
-        <v>0.79920000000000002</v>
+        <v>0.80669999999999997</v>
       </c>
       <c r="AB4" s="6">
-        <v>0.79700000000000004</v>
+        <v>0.8024</v>
       </c>
       <c r="AC4" s="6">
-        <v>0.80810000000000004</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="AD4" s="6">
-        <v>0.81840000000000002</v>
+        <v>0.80520000000000003</v>
       </c>
       <c r="AE4" s="6">
-        <v>0.82799999999999996</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="AF4" s="6">
-        <v>0.83699999999999997</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="AG4" s="6">
-        <v>0.84550000000000003</v>
+        <v>0.80879999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -2416,114 +2416,114 @@
         <v>0.36890000000000001</v>
       </c>
       <c r="I6" s="6">
-        <v>0.40990000000000004</v>
+        <v>0.41279999999999994</v>
       </c>
       <c r="J6" s="6">
-        <v>0.44569999999999999</v>
+        <v>0.45099999999999996</v>
       </c>
       <c r="K6" s="6">
-        <v>0.44789999999999996</v>
+        <v>0.4556</v>
       </c>
       <c r="L6" s="6">
-        <v>0.44999999999999996</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="M6" s="6">
-        <v>0.39600000000000002</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N6" s="6">
-        <v>0.32540000000000002</v>
+        <v>0.34489999999999998</v>
       </c>
       <c r="O6" s="6">
-        <v>0.27439999999999998</v>
+        <v>0.28359999999999996</v>
       </c>
       <c r="P6" s="6">
-        <v>0.22399999999999998</v>
+        <v>0.22299999999999998</v>
       </c>
       <c r="Q6" s="6">
-        <v>0.21489999999999998</v>
+        <v>0.20799999999999996</v>
       </c>
       <c r="R6" s="6">
-        <v>0.20130000000000003</v>
+        <v>0.18269999999999997</v>
       </c>
       <c r="S6" s="6">
-        <v>0.21319999999999995</v>
+        <v>0.20030000000000003</v>
       </c>
       <c r="T6" s="6">
-        <v>0.20620000000000005</v>
+        <v>0.18600000000000005</v>
       </c>
       <c r="U6" s="6">
-        <v>0.20489999999999997</v>
+        <v>0.18230000000000002</v>
       </c>
       <c r="V6" s="6">
-        <v>0.20369999999999999</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="W6" s="6">
-        <v>0.2026</v>
+        <v>0.1774</v>
       </c>
       <c r="X6" s="6">
-        <v>0.20030000000000003</v>
+        <v>0.18120000000000003</v>
       </c>
       <c r="Y6" s="6">
-        <v>0.19930000000000003</v>
+        <v>0.18510000000000004</v>
       </c>
       <c r="Z6" s="6">
-        <v>0.19950000000000001</v>
+        <v>0.18910000000000005</v>
       </c>
       <c r="AA6" s="6">
-        <v>0.20079999999999998</v>
+        <v>0.19330000000000003</v>
       </c>
       <c r="AB6" s="6">
-        <v>0.20299999999999996</v>
+        <v>0.1976</v>
       </c>
       <c r="AC6" s="6">
-        <v>0.19189999999999996</v>
+        <v>0.19610000000000005</v>
       </c>
       <c r="AD6" s="6">
-        <v>0.18159999999999998</v>
+        <v>0.19479999999999997</v>
       </c>
       <c r="AE6" s="6">
-        <v>0.17200000000000004</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="AF6" s="6">
-        <v>0.16300000000000003</v>
+        <v>0.19230000000000003</v>
       </c>
       <c r="AG6" s="6">
-        <v>0.15449999999999997</v>
+        <v>0.19120000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H11" s="5"/>
@@ -2575,12 +2575,6 @@
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H29" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -4517,12 +4511,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8F814574E960A4499025803604D4DF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314e7041d7d1561dbe33e80becf1c782">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b2ff61d-e0c4-454b-ba72-44cf85c32a41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c838da6aa04a0f137f8b0aba02cfe1" ns2:_="">
     <xsd:import namespace="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
@@ -4692,16 +4695,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E9CD8A-C4F5-45BC-BE9C-DFD7322D2652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B6197E-CF7C-4AE7-839E-1EDE8722E96A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4710,7 +4712,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14B52C94-F098-4095-996A-A0F5FD912219}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4726,12 +4728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E9CD8A-C4F5-45BC-BE9C-DFD7322D2652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>